--- a/data/trans_orig/P37C1_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Dificultad-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7532</v>
+        <v>7658</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.003052551545793144</v>
+        <v>0.003052551545793145</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0155151695998</v>
+        <v>0.01577426960248204</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -762,19 +762,19 @@
         <v>3827</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1343</v>
+        <v>1593</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7911</v>
+        <v>8163</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006159536329445946</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002161073738123436</v>
+        <v>0.002564799218249395</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01273414465217368</v>
+        <v>0.01314041327193682</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -783,19 +783,19 @@
         <v>5309</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2081</v>
+        <v>2441</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11363</v>
+        <v>11668</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004796615812254741</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001880540339673816</v>
+        <v>0.002205155904912033</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0102674677669665</v>
+        <v>0.01054283732632471</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>4516</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10350</v>
+        <v>9892</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.009301539893242157</v>
+        <v>0.009301539893242158</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003144009586137392</v>
+        <v>0.003132815826264435</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02131848436713793</v>
+        <v>0.02037626922939497</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -833,19 +833,19 @@
         <v>5973</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2570</v>
+        <v>2457</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12235</v>
+        <v>12796</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.009614536357348453</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.004136622011126974</v>
+        <v>0.003955124921539942</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01969478634479717</v>
+        <v>0.02059797360991985</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -854,19 +854,19 @@
         <v>10489</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5765</v>
+        <v>5430</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18655</v>
+        <v>18644</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009477236263384927</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005209170203851208</v>
+        <v>0.00490644483922487</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01685625760108743</v>
+        <v>0.01684585831507593</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>61320</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>47265</v>
+        <v>45306</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>80790</v>
+        <v>80973</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1263064479444768</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09735640930969747</v>
+        <v>0.09332134098890024</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1664106727798313</v>
+        <v>0.1667890007876887</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>41</v>
@@ -904,19 +904,19 @@
         <v>34337</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24666</v>
+        <v>24300</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>48028</v>
+        <v>50318</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05527012630520971</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03970337472997122</v>
+        <v>0.03911520462301932</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07730838231515352</v>
+        <v>0.08099527204581151</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>93</v>
@@ -925,19 +925,19 @@
         <v>95656</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>76714</v>
+        <v>77357</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>119020</v>
+        <v>117687</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0864311608675115</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06931562721710378</v>
+        <v>0.06989673794261941</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1075412888003271</v>
+        <v>0.1063367543257863</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>115571</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>96371</v>
+        <v>93922</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>138581</v>
+        <v>137572</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.238053215022578</v>
+        <v>0.2380532150225781</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1985059838397794</v>
+        <v>0.1934604188505891</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2854500646773028</v>
+        <v>0.2833706705958708</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>141</v>
@@ -975,19 +975,19 @@
         <v>104608</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>89409</v>
+        <v>88041</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>121312</v>
+        <v>123605</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1683827012270931</v>
+        <v>0.168382701227093</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1439179791885807</v>
+        <v>0.1417156720213343</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1952702395931484</v>
+        <v>0.1989618297722967</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>237</v>
@@ -996,19 +996,19 @@
         <v>220179</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>195259</v>
+        <v>193984</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>249871</v>
+        <v>250383</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1989446058732699</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1764284675559604</v>
+        <v>0.1752764133728947</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2257735759594036</v>
+        <v>0.2262358566288822</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>302595</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>276560</v>
+        <v>277631</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>323808</v>
+        <v>325300</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6232862455939098</v>
+        <v>0.6232862455939099</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5696585543776863</v>
+        <v>0.5718637740419921</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6669799737500375</v>
+        <v>0.6700523207273938</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>663</v>
@@ -1046,19 +1046,19 @@
         <v>472506</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>452543</v>
+        <v>452330</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>490554</v>
+        <v>491010</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7605730997809029</v>
+        <v>0.7605730997809027</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7284393065882883</v>
+        <v>0.7280967963430844</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7896242621535664</v>
+        <v>0.7903585614087478</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>956</v>
@@ -1067,19 +1067,19 @@
         <v>775102</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>742623</v>
+        <v>742117</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>805217</v>
+        <v>805901</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7003503811835788</v>
+        <v>0.700350381183579</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6710041178748721</v>
+        <v>0.6705472570492641</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7275616242365766</v>
+        <v>0.7281796676359736</v>
       </c>
     </row>
     <row r="9">
@@ -1174,16 +1174,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10218</v>
+        <v>9807</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.002918040437620933</v>
+        <v>0.002918040437620932</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01066816005383744</v>
+        <v>0.01023884445088718</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1192,19 +1192,19 @@
         <v>2808</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1048</v>
+        <v>853</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6536</v>
+        <v>5894</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.002522345361090661</v>
+        <v>0.002522345361090662</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0009417681595063448</v>
+        <v>0.0007665179478872618</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.005871385780453289</v>
+        <v>0.005294612177559845</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1213,19 +1213,19 @@
         <v>5603</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2267</v>
+        <v>2378</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12245</v>
+        <v>12474</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002705357776512848</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001094864643687341</v>
+        <v>0.001148468257551343</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005912786790746082</v>
+        <v>0.006023186287162008</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>5135</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2199</v>
+        <v>1902</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10622</v>
+        <v>10811</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005361261715951997</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002295668018601957</v>
+        <v>0.001986138890066641</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01108946974295845</v>
+        <v>0.01128712864728097</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5305</v>
+        <v>5890</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.001422882420247502</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.004766103007366746</v>
+        <v>0.005291729746961845</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -1284,19 +1284,19 @@
         <v>6719</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2947</v>
+        <v>3034</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13471</v>
+        <v>12883</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.003244417108209355</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00142309112943245</v>
+        <v>0.001465226192902182</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.006504665094410729</v>
+        <v>0.006220823225706451</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>34738</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23758</v>
+        <v>23159</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>50703</v>
+        <v>48826</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.03626704159541764</v>
+        <v>0.03626704159541763</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02480339944085204</v>
+        <v>0.02417863575449359</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05293447792029134</v>
+        <v>0.05097492203425414</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>49</v>
@@ -1334,19 +1334,19 @@
         <v>32709</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>24742</v>
+        <v>24002</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>42651</v>
+        <v>43082</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02938471786262887</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02222752858689028</v>
+        <v>0.02156214020356373</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03831643469767804</v>
+        <v>0.03870351336064979</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>80</v>
@@ -1355,19 +1355,19 @@
         <v>67448</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>53204</v>
+        <v>53209</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>85421</v>
+        <v>86464</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03256785246490829</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02569040101754312</v>
+        <v>0.02569280608290362</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04124674230344991</v>
+        <v>0.04175031313757036</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>249236</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>216822</v>
+        <v>220210</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>277880</v>
+        <v>283346</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2602038875460435</v>
+        <v>0.2602038875460433</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2263636931784807</v>
+        <v>0.2299007700844369</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2901079544017963</v>
+        <v>0.2958152928370073</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>343</v>
@@ -1405,19 +1405,19 @@
         <v>244984</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>222713</v>
+        <v>220084</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>269393</v>
+        <v>269683</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2200846174289867</v>
+        <v>0.2200846174289868</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2000764663252839</v>
+        <v>0.1977148713952937</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2420127949432998</v>
+        <v>0.2422729873439258</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>569</v>
@@ -1426,19 +1426,19 @@
         <v>494220</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>454497</v>
+        <v>452740</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>535373</v>
+        <v>531418</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2386401288937244</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2194595735704812</v>
+        <v>0.218611090413618</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2585111913708728</v>
+        <v>0.256601770204991</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>665944</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>633614</v>
+        <v>631144</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>700263</v>
+        <v>695372</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6952497687049661</v>
+        <v>0.695249768704966</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6614963095493719</v>
+        <v>0.6589183692105842</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7310785360665139</v>
+        <v>0.7259722092827104</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1204</v>
@@ -1476,19 +1476,19 @@
         <v>831052</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>806547</v>
+        <v>803965</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>855903</v>
+        <v>857334</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7465854369270462</v>
+        <v>0.7465854369270463</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.724570907740355</v>
+        <v>0.7222519640235101</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7689105002492576</v>
+        <v>0.7701962720931566</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1846</v>
@@ -1497,19 +1497,19 @@
         <v>1496995</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1456028</v>
+        <v>1457024</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1539633</v>
+        <v>1539560</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7228422437566451</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7030605667446835</v>
+        <v>0.7035415491767752</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7434301806077069</v>
+        <v>0.7433950950030723</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>2822</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7905</v>
+        <v>7544</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002706040734428285</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0007762908546041842</v>
+        <v>0.0007777321617593281</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.007580611047649678</v>
+        <v>0.007234212228955495</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5538</v>
+        <v>4248</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001343817441231886</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.005308011306562351</v>
+        <v>0.004071490323986082</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1643,19 +1643,19 @@
         <v>4224</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1438</v>
+        <v>1529</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10125</v>
+        <v>9505</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002024729992248904</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0006894731740814708</v>
+        <v>0.0007329732304116295</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.004853114260236658</v>
+        <v>0.004555994604667135</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>9849</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4614</v>
+        <v>4559</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19937</v>
+        <v>19171</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.009444462416515467</v>
+        <v>0.009444462416515469</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004425054443948005</v>
+        <v>0.00437175820921422</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01911915879827612</v>
+        <v>0.01838458140449132</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1693,19 +1693,19 @@
         <v>4002</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1548</v>
+        <v>1572</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8676</v>
+        <v>8671</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.003835570362983457</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001483916947667304</v>
+        <v>0.001506277757240271</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.008314985609497831</v>
+        <v>0.008310573832092173</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -1714,19 +1714,19 @@
         <v>13851</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7628</v>
+        <v>7635</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>25371</v>
+        <v>23764</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.006639196622807611</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003656252486998259</v>
+        <v>0.00365979524816802</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01216147328035604</v>
+        <v>0.01139108713116824</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>30834</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20367</v>
+        <v>20709</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>44352</v>
+        <v>45035</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02956888046447432</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01953098316846963</v>
+        <v>0.01985926943874458</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04253200350752791</v>
+        <v>0.04318646326851484</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>31</v>
@@ -1764,19 +1764,19 @@
         <v>21349</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14537</v>
+        <v>14779</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>31160</v>
+        <v>32029</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02046101984716427</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01393198026091346</v>
+        <v>0.01416403535210102</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02986335089298254</v>
+        <v>0.03069627384385283</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>61</v>
@@ -1785,19 +1785,19 @@
         <v>52183</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>38863</v>
+        <v>38967</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>68574</v>
+        <v>67374</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02501361899754885</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01862880580039623</v>
+        <v>0.01867833074685208</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03287025756435945</v>
+        <v>0.03229522092797674</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>213843</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>189225</v>
+        <v>188512</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>241815</v>
+        <v>243501</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2050667981424587</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1814589993941954</v>
+        <v>0.1807756658318019</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.23189117225134</v>
+        <v>0.2335078973766556</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>281</v>
@@ -1835,19 +1835,19 @@
         <v>187736</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>165063</v>
+        <v>165259</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>210545</v>
+        <v>209667</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1799262729921237</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1581964898415045</v>
+        <v>0.1583843487629785</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.201786517764792</v>
+        <v>0.2009447844228983</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>483</v>
@@ -1856,19 +1856,19 @@
         <v>401579</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>365782</v>
+        <v>367701</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>437016</v>
+        <v>435975</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1924928611568689</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1753337023589803</v>
+        <v>0.1762537938734243</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2094791107701188</v>
+        <v>0.2089799247179994</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>785449</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>753863</v>
+        <v>751746</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>813691</v>
+        <v>813120</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7532138182421232</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7229236472037368</v>
+        <v>0.7208935895952657</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7802961716555753</v>
+        <v>0.7797494341504898</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1190</v>
@@ -1906,19 +1906,19 @@
         <v>828916</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>804262</v>
+        <v>806214</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>852009</v>
+        <v>851832</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7944333193564966</v>
+        <v>0.7944333193564969</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7708046512990484</v>
+        <v>0.7726756321172062</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8165652619089977</v>
+        <v>0.8163959171251404</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1972</v>
@@ -1927,19 +1927,19 @@
         <v>1614366</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1576983</v>
+        <v>1575393</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1653963</v>
+        <v>1650737</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7738295932305257</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7559108048380639</v>
+        <v>0.7551483991951928</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7928099759864777</v>
+        <v>0.7912638514611553</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>4422</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1402</v>
+        <v>1420</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10753</v>
+        <v>11937</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004568288187531543</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00144833145787285</v>
+        <v>0.001466716902588806</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01110839940177165</v>
+        <v>0.01233197672163659</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -2055,16 +2055,16 @@
         <v>616</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11886</v>
+        <v>12987</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.004478025350181114</v>
+        <v>0.004478025350181115</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0006800553678411172</v>
+        <v>0.0006796505732207243</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01312376166260347</v>
+        <v>0.01433888990385314</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -2073,19 +2073,19 @@
         <v>8478</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3483</v>
+        <v>3708</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>18170</v>
+        <v>18096</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.004524657077257332</v>
+        <v>0.004524657077257334</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001859007755520769</v>
+        <v>0.001979146669723298</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.009697352345117101</v>
+        <v>0.009657973515738362</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>11070</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5770</v>
+        <v>5946</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18686</v>
+        <v>19154</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01143614771726788</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.005960604862901678</v>
+        <v>0.006142893272826713</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01930402305477197</v>
+        <v>0.01978733771183104</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -2123,19 +2123,19 @@
         <v>5755</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2650</v>
+        <v>2593</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11272</v>
+        <v>10685</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.006353926612731318</v>
+        <v>0.006353926612731319</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002926132964675979</v>
+        <v>0.002863476588367375</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01244544453974845</v>
+        <v>0.01179695422308987</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>21</v>
@@ -2144,19 +2144,19 @@
         <v>16825</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10335</v>
+        <v>10882</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>25985</v>
+        <v>28183</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.00897951156490458</v>
+        <v>0.008979511564904582</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005515990998008363</v>
+        <v>0.005807850251395567</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01386841860753053</v>
+        <v>0.01504131944192827</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>32638</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20452</v>
+        <v>21819</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>47331</v>
+        <v>47364</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.03371769668485524</v>
+        <v>0.03371769668485523</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02112791100453302</v>
+        <v>0.02254006052043795</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04889579005714269</v>
+        <v>0.04893020168211651</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>21</v>
@@ -2194,19 +2194,19 @@
         <v>16750</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9960</v>
+        <v>10317</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>26796</v>
+        <v>28265</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01849382283946074</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01099722388385096</v>
+        <v>0.01139097696308516</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0295859951671979</v>
+        <v>0.03120794644197114</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>49</v>
@@ -2215,19 +2215,19 @@
         <v>49388</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>36181</v>
+        <v>34150</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>67650</v>
+        <v>66938</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02635880416555297</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01930981729839952</v>
+        <v>0.0182261862598965</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03610514168877359</v>
+        <v>0.03572504542237538</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>201097</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>174886</v>
+        <v>174497</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>229370</v>
+        <v>229104</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2077464164747246</v>
+        <v>0.2077464164747245</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1806691355037383</v>
+        <v>0.1802663439908365</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2369541473748689</v>
+        <v>0.2366791051575136</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>369</v>
@@ -2265,19 +2265,19 @@
         <v>199757</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>180320</v>
+        <v>180188</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>220320</v>
+        <v>220382</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2205544884970582</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1990930836271663</v>
+        <v>0.19894785521279</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2432580557250934</v>
+        <v>0.2433262141422043</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>587</v>
@@ -2286,19 +2286,19 @@
         <v>400854</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>369989</v>
+        <v>369372</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>439001</v>
+        <v>435730</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2139375624569509</v>
+        <v>0.213937562456951</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1974645659011375</v>
+        <v>0.1971353953511822</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2342965993774421</v>
+        <v>0.23255108108828</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>718765</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>688385</v>
+        <v>689631</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>746998</v>
+        <v>747045</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7425314509356208</v>
+        <v>0.7425314509356207</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7111471047623462</v>
+        <v>0.712433379802009</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7716980001450199</v>
+        <v>0.7717463929962675</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>913</v>
@@ -2336,19 +2336,19 @@
         <v>679387</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>657966</v>
+        <v>656436</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>701230</v>
+        <v>700124</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7501197367005685</v>
+        <v>0.7501197367005686</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7264682822998779</v>
+        <v>0.7247792257528323</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7742370523833443</v>
+        <v>0.773014957801031</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1591</v>
@@ -2357,19 +2357,19 @@
         <v>1398152</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1360291</v>
+        <v>1361589</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1433896</v>
+        <v>1434093</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7461994647353342</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7259927147913242</v>
+        <v>0.7266855932288054</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7652759578845293</v>
+        <v>0.7653809893788928</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>11521</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5573</v>
+        <v>5539</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>21737</v>
+        <v>20216</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.003335413683296025</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001613548248132875</v>
+        <v>0.001603734937833188</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.006292926804402435</v>
+        <v>0.005852837071457759</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -2482,19 +2482,19 @@
         <v>12092</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6665</v>
+        <v>7107</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>20465</v>
+        <v>20957</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.003282815785922379</v>
+        <v>0.00328281578592238</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001809503420200411</v>
+        <v>0.001929282835216431</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.005555774754670971</v>
+        <v>0.005689376313748559</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>26</v>
@@ -2503,19 +2503,19 @@
         <v>23613</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>15760</v>
+        <v>15118</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>36016</v>
+        <v>35054</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.003308269583517899</v>
+        <v>0.0033082695835179</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002208015813395108</v>
+        <v>0.002118045937526422</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.005045896363936102</v>
+        <v>0.004911206322963179</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>30570</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>20401</v>
+        <v>21554</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>43772</v>
+        <v>44186</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.008850233644939818</v>
+        <v>0.008850233644939816</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.005906380659272199</v>
+        <v>0.006240072667012874</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01267238691716159</v>
+        <v>0.0127921817533173</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>24</v>
@@ -2553,19 +2553,19 @@
         <v>17314</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11293</v>
+        <v>10931</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>26948</v>
+        <v>25843</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.004700351836761561</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.003065883946820466</v>
+        <v>0.002967542987540124</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.007315856783006452</v>
+        <v>0.007015905588091506</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>56</v>
@@ -2574,19 +2574,19 @@
         <v>47884</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>35964</v>
+        <v>36621</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>63900</v>
+        <v>64486</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.00670861180275075</v>
+        <v>0.006708611802750751</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005038716842302378</v>
+        <v>0.00513065149968061</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.008952624668137888</v>
+        <v>0.009034700867394651</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>159531</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>132434</v>
+        <v>132892</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>190704</v>
+        <v>189684</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04618565502612334</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03834088147260947</v>
+        <v>0.03847353156369333</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05521056123410951</v>
+        <v>0.05491513039232822</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>142</v>
@@ -2624,19 +2624,19 @@
         <v>105145</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>88031</v>
+        <v>88275</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>126913</v>
+        <v>128957</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02854484637049166</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0238987628237305</v>
+        <v>0.02396512473958163</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03445445168106964</v>
+        <v>0.0350093391835147</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>283</v>
@@ -2645,19 +2645,19 @@
         <v>264676</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>232899</v>
+        <v>231915</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>302677</v>
+        <v>301073</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.03708179547611759</v>
+        <v>0.0370817954761176</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03262974212713069</v>
+        <v>0.0324919250887003</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04240592428599343</v>
+        <v>0.04218121464530944</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>779747</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>730047</v>
+        <v>729996</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>834047</v>
+        <v>835444</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.2257438951435381</v>
+        <v>0.225743895143538</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2113554445644769</v>
+        <v>0.2113406627223012</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2414644237660152</v>
+        <v>0.241868847130524</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1134</v>
@@ -2695,19 +2695,19 @@
         <v>737086</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>693573</v>
+        <v>696130</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>781634</v>
+        <v>779134</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2001047682502354</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1882920136391679</v>
+        <v>0.1889860384275754</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2121988682163214</v>
+        <v>0.211520229155345</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1876</v>
@@ -2716,19 +2716,19 @@
         <v>1516832</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1443143</v>
+        <v>1454586</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1582983</v>
+        <v>1582218</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.212512358269128</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.202188197236744</v>
+        <v>0.2037914252731686</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2217802792975453</v>
+        <v>0.2216730406131705</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>2472753</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2413128</v>
+        <v>2412747</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2528759</v>
+        <v>2532166</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7158848025021028</v>
+        <v>0.7158848025021027</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6986228456101417</v>
+        <v>0.6985125162627555</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7320991050504746</v>
+        <v>0.7330854155708088</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3970</v>
@@ -2766,19 +2766,19 @@
         <v>2811862</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2762189</v>
+        <v>2768901</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2857883</v>
+        <v>2855231</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.7633672177565889</v>
+        <v>0.763367217756589</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7498819687231236</v>
+        <v>0.7517042118229776</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7758610963018782</v>
+        <v>0.7751412842937765</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6365</v>
@@ -2787,19 +2787,19 @@
         <v>5284615</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5207654</v>
+        <v>5210688</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5366498</v>
+        <v>5355122</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.7403889648684857</v>
+        <v>0.7403889648684859</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7296064490824499</v>
+        <v>0.7300316001318662</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7518610003402497</v>
+        <v>0.7502671274870603</v>
       </c>
     </row>
     <row r="33">
